--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H2">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I2">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J2">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>73.35122732582964</v>
+        <v>110.7906869511925</v>
       </c>
       <c r="R2">
-        <v>73.35122732582964</v>
+        <v>997.1161825607321</v>
       </c>
       <c r="S2">
-        <v>0.01103302552644421</v>
+        <v>0.01441744298805826</v>
       </c>
       <c r="T2">
-        <v>0.01103302552644421</v>
+        <v>0.01534272310371172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H3">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I3">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J3">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>639.7598727970388</v>
+        <v>729.6271667932962</v>
       </c>
       <c r="R3">
-        <v>639.7598727970388</v>
+        <v>6566.644501139665</v>
       </c>
       <c r="S3">
-        <v>0.0962286149079728</v>
+        <v>0.09494803551868036</v>
       </c>
       <c r="T3">
-        <v>0.0962286149079728</v>
+        <v>0.101041593811823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H4">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I4">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J4">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>522.1905474829517</v>
+        <v>612.7488972520524</v>
       </c>
       <c r="R4">
-        <v>522.1905474829517</v>
+        <v>5514.740075268473</v>
       </c>
       <c r="S4">
-        <v>0.07854458405249486</v>
+        <v>0.07973840162232108</v>
       </c>
       <c r="T4">
-        <v>0.07854458405249486</v>
+        <v>0.08485583871128582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H5">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I5">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J5">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>576.7720322770722</v>
+        <v>630.8048309081395</v>
       </c>
       <c r="R5">
-        <v>576.7720322770722</v>
+        <v>5677.243478173256</v>
       </c>
       <c r="S5">
-        <v>0.08675438417389925</v>
+        <v>0.08208806115821221</v>
       </c>
       <c r="T5">
-        <v>0.08675438417389925</v>
+        <v>0.0873562942828482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.48797285511773</v>
+        <v>10.36956766666667</v>
       </c>
       <c r="H6">
-        <v>9.48797285511773</v>
+        <v>31.108703</v>
       </c>
       <c r="I6">
-        <v>0.3067551096367577</v>
+        <v>0.3064094944964822</v>
       </c>
       <c r="J6">
-        <v>0.3067551096367577</v>
+        <v>0.3135816093320294</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>227.3364281056206</v>
+        <v>270.6289122155962</v>
       </c>
       <c r="R6">
-        <v>227.3364281056206</v>
+        <v>1623.773473293577</v>
       </c>
       <c r="S6">
-        <v>0.03419450097594658</v>
+        <v>0.03521755320921029</v>
       </c>
       <c r="T6">
-        <v>0.03419450097594658</v>
+        <v>0.02498515942236068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.1710108583687</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H7">
-        <v>19.1710108583687</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I7">
-        <v>0.6198168594605863</v>
+        <v>0.6188351484978608</v>
       </c>
       <c r="J7">
-        <v>0.6198168594605863</v>
+        <v>0.6333201981749051</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>148.2104973329102</v>
+        <v>223.7566800085182</v>
       </c>
       <c r="R7">
-        <v>148.2104973329102</v>
+        <v>2013.810120076664</v>
       </c>
       <c r="S7">
-        <v>0.02229288125060687</v>
+        <v>0.02911796348587659</v>
       </c>
       <c r="T7">
-        <v>0.02229288125060687</v>
+        <v>0.03098669101572506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.1710108583687</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H8">
-        <v>19.1710108583687</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I8">
-        <v>0.6198168594605863</v>
+        <v>0.6188351484978608</v>
       </c>
       <c r="J8">
-        <v>0.6198168594605863</v>
+        <v>0.6333201981749051</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>1292.672697890895</v>
+        <v>1473.580108385926</v>
       </c>
       <c r="R8">
-        <v>1292.672697890895</v>
+        <v>13262.22097547333</v>
       </c>
       <c r="S8">
-        <v>0.1944356133240261</v>
+        <v>0.1917603165539549</v>
       </c>
       <c r="T8">
-        <v>0.1944356133240261</v>
+        <v>0.2040670763605137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.1710108583687</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H9">
-        <v>19.1710108583687</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I9">
-        <v>0.6198168594605863</v>
+        <v>0.6188351484978608</v>
       </c>
       <c r="J9">
-        <v>0.6198168594605863</v>
+        <v>0.6333201981749051</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>1055.116915783898</v>
+        <v>1237.528737306238</v>
       </c>
       <c r="R9">
-        <v>1055.116915783898</v>
+        <v>11137.75863575614</v>
       </c>
       <c r="S9">
-        <v>0.1587039820549474</v>
+        <v>0.161042417076595</v>
       </c>
       <c r="T9">
-        <v>0.1587039820549474</v>
+        <v>0.1713777689431616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.1710108583687</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H10">
-        <v>19.1710108583687</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I10">
-        <v>0.6198168594605863</v>
+        <v>0.6188351484978608</v>
       </c>
       <c r="J10">
-        <v>0.6198168594605863</v>
+        <v>0.6333201981749051</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>1165.402037129872</v>
+        <v>1273.995121625346</v>
       </c>
       <c r="R10">
-        <v>1165.402037129872</v>
+        <v>11465.95609462811</v>
       </c>
       <c r="S10">
-        <v>0.1752923692347848</v>
+        <v>0.165787870249324</v>
       </c>
       <c r="T10">
-        <v>0.1752923692347848</v>
+        <v>0.1764277749734346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.1710108583687</v>
+        <v>20.94273533333333</v>
       </c>
       <c r="H11">
-        <v>19.1710108583687</v>
+        <v>62.82820599999999</v>
       </c>
       <c r="I11">
-        <v>0.6198168594605863</v>
+        <v>0.6188351484978608</v>
       </c>
       <c r="J11">
-        <v>0.6198168594605863</v>
+        <v>0.6333201981749051</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>459.3467117019412</v>
+        <v>546.5714544973923</v>
       </c>
       <c r="R11">
-        <v>459.3467117019412</v>
+        <v>3279.428726984354</v>
       </c>
       <c r="S11">
-        <v>0.06909201359622112</v>
+        <v>0.07112658113211036</v>
       </c>
       <c r="T11">
-        <v>0.06909201359622112</v>
+        <v>0.0504608868820702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.27113792769131</v>
+        <v>0.2078093333333333</v>
       </c>
       <c r="H12">
-        <v>2.27113792769131</v>
+        <v>0.623428</v>
       </c>
       <c r="I12">
-        <v>0.07342803090265607</v>
+        <v>0.006140540746264892</v>
       </c>
       <c r="J12">
-        <v>0.07342803090265607</v>
+        <v>0.006284272138978229</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>17.55809770603858</v>
+        <v>2.220279527070222</v>
       </c>
       <c r="R12">
-        <v>17.55809770603858</v>
+        <v>19.982515743632</v>
       </c>
       <c r="S12">
-        <v>0.00264097748938837</v>
+        <v>0.0002889300028728032</v>
       </c>
       <c r="T12">
-        <v>0.00264097748938837</v>
+        <v>0.0003074729016860905</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.27113792769131</v>
+        <v>0.2078093333333333</v>
       </c>
       <c r="H13">
-        <v>2.27113792769131</v>
+        <v>0.623428</v>
       </c>
       <c r="I13">
-        <v>0.07342803090265607</v>
+        <v>0.006140540746264892</v>
       </c>
       <c r="J13">
-        <v>0.07342803090265607</v>
+        <v>0.006284272138978229</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>153.1394465299926</v>
+        <v>14.62195339161556</v>
       </c>
       <c r="R13">
-        <v>153.1394465299926</v>
+        <v>131.59758052454</v>
       </c>
       <c r="S13">
-        <v>0.02303426246933404</v>
+        <v>0.001902787907529924</v>
       </c>
       <c r="T13">
-        <v>0.02303426246933404</v>
+        <v>0.002024904694577502</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.27113792769131</v>
+        <v>0.2078093333333333</v>
       </c>
       <c r="H14">
-        <v>2.27113792769131</v>
+        <v>0.623428</v>
       </c>
       <c r="I14">
-        <v>0.07342803090265607</v>
+        <v>0.006140540746264892</v>
       </c>
       <c r="J14">
-        <v>0.07342803090265607</v>
+        <v>0.006284272138978229</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>124.9968540151041</v>
+        <v>12.27967683243022</v>
       </c>
       <c r="R14">
-        <v>124.9968540151041</v>
+        <v>110.517091491872</v>
       </c>
       <c r="S14">
-        <v>0.01880123252672877</v>
+        <v>0.001597982154595143</v>
       </c>
       <c r="T14">
-        <v>0.01880123252672877</v>
+        <v>0.001700537171739352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.27113792769131</v>
+        <v>0.2078093333333333</v>
       </c>
       <c r="H15">
-        <v>2.27113792769131</v>
+        <v>0.623428</v>
       </c>
       <c r="I15">
-        <v>0.07342803090265607</v>
+        <v>0.006140540746264892</v>
       </c>
       <c r="J15">
-        <v>0.07342803090265607</v>
+        <v>0.006284272138978229</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>138.062034761144</v>
+        <v>12.64152331016178</v>
       </c>
       <c r="R15">
-        <v>138.062034761144</v>
+        <v>113.773709791456</v>
       </c>
       <c r="S15">
-        <v>0.02076641399585881</v>
+        <v>0.001645070056175017</v>
       </c>
       <c r="T15">
-        <v>0.02076641399585881</v>
+        <v>0.001750647072369667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2078093333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.623428</v>
+      </c>
+      <c r="I16">
+        <v>0.006140540746264892</v>
+      </c>
+      <c r="J16">
+        <v>0.006284272138978229</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.0983795</v>
+      </c>
+      <c r="N16">
+        <v>52.196759</v>
+      </c>
+      <c r="O16">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P16">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q16">
+        <v>5.423486844975333</v>
+      </c>
+      <c r="R16">
+        <v>32.540921069852</v>
+      </c>
+      <c r="S16">
+        <v>0.0007057706250920056</v>
+      </c>
+      <c r="T16">
+        <v>0.0005007102986056177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.3220755</v>
+      </c>
+      <c r="H17">
+        <v>4.644151</v>
+      </c>
+      <c r="I17">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J17">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N17">
+        <v>32.052644</v>
+      </c>
+      <c r="O17">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P17">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q17">
+        <v>24.80955311420734</v>
+      </c>
+      <c r="R17">
+        <v>148.857318685244</v>
+      </c>
+      <c r="S17">
+        <v>0.003228523330132105</v>
+      </c>
+      <c r="T17">
+        <v>0.002290481954352963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.3220755</v>
+      </c>
+      <c r="H18">
+        <v>4.644151</v>
+      </c>
+      <c r="I18">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J18">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N18">
+        <v>211.087055</v>
+      </c>
+      <c r="O18">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P18">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q18">
+        <v>163.3866929275508</v>
+      </c>
+      <c r="R18">
+        <v>980.320157565305</v>
+      </c>
+      <c r="S18">
+        <v>0.02126188035396951</v>
+      </c>
+      <c r="T18">
+        <v>0.01508428104324284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.27113792769131</v>
-      </c>
-      <c r="H16">
-        <v>2.27113792769131</v>
-      </c>
-      <c r="I16">
-        <v>0.07342803090265607</v>
-      </c>
-      <c r="J16">
-        <v>0.07342803090265607</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q16">
-        <v>54.41756549061471</v>
-      </c>
-      <c r="R16">
-        <v>54.41756549061471</v>
-      </c>
-      <c r="S16">
-        <v>0.008185144421346068</v>
-      </c>
-      <c r="T16">
-        <v>0.008185144421346068</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.3220755</v>
+      </c>
+      <c r="H19">
+        <v>4.644151</v>
+      </c>
+      <c r="I19">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J19">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.273224</v>
+      </c>
+      <c r="O19">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P19">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q19">
+        <v>137.2139367521373</v>
+      </c>
+      <c r="R19">
+        <v>823.283620512824</v>
+      </c>
+      <c r="S19">
+        <v>0.01785596032239133</v>
+      </c>
+      <c r="T19">
+        <v>0.01266794466509442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.3220755</v>
+      </c>
+      <c r="H20">
+        <v>4.644151</v>
+      </c>
+      <c r="I20">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J20">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N20">
+        <v>182.496952</v>
+      </c>
+      <c r="O20">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P20">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q20">
+        <v>141.2572336879587</v>
+      </c>
+      <c r="R20">
+        <v>847.543402127752</v>
+      </c>
+      <c r="S20">
+        <v>0.01838212370904562</v>
+      </c>
+      <c r="T20">
+        <v>0.01304123227027445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.3220755</v>
+      </c>
+      <c r="H21">
+        <v>4.644151</v>
+      </c>
+      <c r="I21">
+        <v>0.06861481625939206</v>
+      </c>
+      <c r="J21">
+        <v>0.04681392035408721</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>60.60240762665225</v>
+      </c>
+      <c r="R21">
+        <v>242.409630506609</v>
+      </c>
+      <c r="S21">
+        <v>0.007886328543853491</v>
+      </c>
+      <c r="T21">
+        <v>0.003729980421122532</v>
       </c>
     </row>
   </sheetData>
